--- a/contatos_processo.xlsx
+++ b/contatos_processo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,30 +444,97 @@
           <t>Processo</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Confirmado</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>968497739</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>974151186</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>968497739</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>991720066</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_processo.xlsx
+++ b/contatos_processo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,47 +444,13 @@
           <t>Processo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Confirmado</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Quantidade</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -494,9 +460,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -505,17 +468,6 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -524,17 +476,22 @@
       <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>966652864</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>979127170</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_processo.xlsx
+++ b/contatos_processo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>Processo</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,6 +462,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -460,37 +472,39 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>968497739</v>
+        <v>992575078</v>
       </c>
       <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-09-30T20:30</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>991720066</v>
+        <v>966652864</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>966652864</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>979127170</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-09-30T21:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/contatos_processo.xlsx
+++ b/contatos_processo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Confirmado</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Quantidade</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
         </is>
       </c>
     </row>
@@ -462,8 +467,19 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -474,37 +490,69 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>992575078</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-09-30T20:30</t>
-        </is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>966652864</v>
+        <v>990033942</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-10-19T16:45</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-09-30T21:00</t>
-        </is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>966652864</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/contatos_processo.xlsx
+++ b/contatos_processo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Quantidade</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>codImovel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,6 +485,11 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -491,68 +501,32 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>992575078</v>
+        <v>992193853</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2023-10-24T10:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>990033942</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-10-19T16:45</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>966652864</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/contatos_processo.xlsx
+++ b/contatos_processo.xlsx
@@ -54,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +65,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -117,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,9 +124,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -448,14 +439,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -519,7 +510,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>

--- a/contatos_processo.xlsx
+++ b/contatos_processo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,15 +476,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -496,10 +492,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -536,10 +530,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -574,10 +566,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -612,10 +602,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -650,10 +638,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -688,10 +674,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -728,10 +712,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -766,10 +748,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -804,10 +784,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -844,10 +822,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -882,10 +858,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -920,10 +894,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -958,10 +930,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E14" t="n">
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -996,10 +966,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1034,10 +1002,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1072,10 +1038,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1110,10 +1074,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1148,10 +1110,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1186,10 +1146,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1224,10 +1182,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1262,10 +1218,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1302,10 +1256,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1340,10 +1292,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1380,10 +1330,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1418,10 +1366,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1456,10 +1402,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1494,10 +1438,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,10 +1474,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1570,10 +1510,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1610,10 +1548,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1648,10 +1584,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1686,10 +1620,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1724,10 +1656,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1762,10 +1692,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1800,10 +1728,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1838,10 +1764,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1876,10 +1800,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1914,10 +1836,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1952,10 +1872,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1990,10 +1908,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2028,10 +1944,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2066,10 +1980,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2106,10 +2018,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2144,10 +2054,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2182,10 +2090,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2220,10 +2126,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2258,10 +2162,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2296,10 +2198,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2334,10 +2234,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2372,10 +2270,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2410,10 +2306,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2448,10 +2342,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2486,10 +2378,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2524,10 +2414,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2562,10 +2450,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2600,10 +2486,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2638,10 +2522,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2676,10 +2558,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2714,10 +2594,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2752,10 +2630,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2790,10 +2666,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2828,10 +2702,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2866,10 +2738,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2906,10 +2776,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2944,10 +2812,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2982,10 +2848,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3020,10 +2884,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3060,10 +2922,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3100,10 +2960,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3140,10 +2998,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E71" t="n">
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3178,10 +3034,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E72" t="n">
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3216,10 +3070,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E73" t="n">
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3254,10 +3106,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E74" t="n">
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3292,10 +3142,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E75" t="n">
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3330,10 +3178,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E76" t="n">
+        <v>0</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3368,10 +3214,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3406,10 +3250,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3444,10 +3286,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3482,10 +3322,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E80" t="n">
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3520,10 +3358,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3558,10 +3394,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3596,10 +3430,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3634,10 +3466,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E84" t="n">
+        <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3672,10 +3502,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3710,10 +3538,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E86" t="n">
+        <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3748,10 +3574,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3788,10 +3612,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E88" t="n">
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3826,10 +3648,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E89" t="n">
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3864,10 +3684,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E90" t="n">
+        <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3902,10 +3720,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E91" t="n">
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3940,10 +3756,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E92" t="n">
+        <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3978,10 +3792,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E93" t="n">
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4018,10 +3830,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E94" t="n">
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4056,10 +3866,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E95" t="n">
+        <v>0</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4094,10 +3902,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E96" t="n">
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4132,10 +3938,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E97" t="n">
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4170,10 +3974,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E98" t="n">
+        <v>0</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4210,10 +4012,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E99" t="n">
+        <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4250,10 +4050,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E100" t="n">
+        <v>0</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4290,10 +4088,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E101" t="n">
+        <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4328,10 +4124,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E102" t="n">
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4366,10 +4160,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E103" t="n">
+        <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4404,10 +4196,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E104" t="n">
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4442,10 +4232,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E105" t="n">
+        <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4482,10 +4270,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E106" t="n">
+        <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4520,10 +4306,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E107" t="n">
+        <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4558,10 +4342,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E108" t="n">
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4596,10 +4378,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E109" t="n">
+        <v>0</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4634,10 +4414,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E110" t="n">
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4672,10 +4450,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E111" t="n">
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4710,10 +4486,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E112" t="n">
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4750,10 +4524,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E113" t="n">
+        <v>0</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -4788,10 +4560,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E114" t="n">
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -4826,10 +4596,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E115" t="n">
+        <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4864,10 +4632,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E116" t="n">
+        <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4902,10 +4668,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E117" t="n">
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4940,10 +4704,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E118" t="n">
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -4978,10 +4740,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E119" t="n">
+        <v>0</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5016,10 +4776,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E120" t="n">
+        <v>0</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5054,10 +4812,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E121" t="n">
+        <v>0</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5094,10 +4850,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E122" t="n">
+        <v>0</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5132,10 +4886,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E123" t="n">
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5170,10 +4922,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E124" t="n">
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5208,10 +4958,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E125" t="n">
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5246,10 +4994,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E126" t="n">
+        <v>0</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5284,10 +5030,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E127" t="n">
+        <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5322,10 +5066,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E128" t="n">
+        <v>0</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5360,10 +5102,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E129" t="n">
+        <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5400,10 +5140,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E130" t="n">
+        <v>0</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5440,10 +5178,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E131" t="n">
+        <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5478,10 +5214,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E132" t="n">
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5518,10 +5252,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E133" t="n">
+        <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5556,10 +5288,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E134" t="n">
+        <v>0</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5596,10 +5326,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E135" t="n">
+        <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5636,10 +5364,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E136" t="n">
+        <v>0</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5674,10 +5400,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E137" t="n">
+        <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5712,10 +5436,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E138" t="n">
+        <v>0</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5750,10 +5472,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E139" t="n">
+        <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5788,10 +5508,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E140" t="n">
+        <v>0</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5826,10 +5544,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E141" t="n">
+        <v>0</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5864,10 +5580,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E142" t="n">
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5904,10 +5618,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E143" t="n">
+        <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5942,10 +5654,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E144" t="n">
+        <v>0</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5982,10 +5692,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E145" t="n">
+        <v>0</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6022,10 +5730,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E146" t="n">
+        <v>0</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6060,10 +5766,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E147" t="n">
+        <v>0</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6100,10 +5804,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E148" t="n">
+        <v>0</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6138,10 +5840,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E149" t="n">
+        <v>0</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6176,10 +5876,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E150" t="n">
+        <v>0</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6214,10 +5912,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E151" t="n">
+        <v>0</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6252,10 +5948,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E152" t="n">
+        <v>0</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6290,10 +5984,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E153" t="n">
+        <v>0</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6328,10 +6020,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E154" t="n">
+        <v>0</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6366,10 +6056,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E155" t="n">
+        <v>0</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6406,10 +6094,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E156" t="n">
+        <v>0</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6444,10 +6130,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E157" t="n">
+        <v>0</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6484,10 +6168,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E158" t="n">
+        <v>0</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6524,10 +6206,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E159" t="n">
+        <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6562,10 +6242,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E160" t="n">
+        <v>0</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6602,10 +6280,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E161" t="n">
+        <v>0</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6640,10 +6316,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E162" t="n">
+        <v>0</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -6678,10 +6352,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E163" t="n">
+        <v>0</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -6716,10 +6388,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E164" t="n">
+        <v>0</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6754,10 +6424,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E165" t="n">
+        <v>0</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -6792,10 +6460,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E166" t="n">
+        <v>0</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6830,10 +6496,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E167" t="n">
+        <v>0</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6868,10 +6532,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E168" t="n">
+        <v>0</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6906,10 +6568,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E169" t="n">
+        <v>0</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6944,10 +6604,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E170" t="n">
+        <v>0</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6982,10 +6640,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E171" t="n">
+        <v>0</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7020,10 +6676,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E172" t="n">
+        <v>0</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7058,10 +6712,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E173" t="n">
+        <v>0</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7096,10 +6748,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E174" t="n">
+        <v>0</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7134,10 +6784,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E175" t="n">
+        <v>0</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7172,10 +6820,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E176" t="n">
+        <v>0</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7210,10 +6856,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E177" t="n">
+        <v>0</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7248,10 +6892,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E178" t="n">
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7286,10 +6928,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E179" t="n">
+        <v>0</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7324,10 +6964,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E180" t="n">
+        <v>0</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7362,10 +7000,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E181" t="n">
+        <v>0</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7400,10 +7036,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E182" t="n">
+        <v>0</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7438,10 +7072,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E183" t="n">
+        <v>0</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -7476,10 +7108,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E184" t="n">
+        <v>0</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7514,10 +7144,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E185" t="n">
+        <v>0</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7552,10 +7180,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E186" t="n">
+        <v>0</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -7590,10 +7216,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E187" t="n">
+        <v>0</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -7628,10 +7252,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E188" t="n">
+        <v>0</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -7666,10 +7288,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E189" t="n">
+        <v>0</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -7704,10 +7324,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E190" t="n">
+        <v>0</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -7742,10 +7360,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E191" t="n">
+        <v>0</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -7780,10 +7396,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E192" t="n">
+        <v>0</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7818,10 +7432,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E193" t="n">
+        <v>0</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7856,10 +7468,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E194" t="n">
+        <v>0</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -7894,10 +7504,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E195" t="n">
+        <v>0</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -7932,10 +7540,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E196" t="n">
+        <v>0</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -7970,10 +7576,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E197" t="n">
+        <v>0</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8008,10 +7612,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E198" t="n">
+        <v>0</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8048,10 +7650,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E199" t="n">
+        <v>0</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8086,10 +7686,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E200" t="n">
+        <v>0</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -8124,10 +7722,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E201" t="n">
+        <v>0</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8162,10 +7758,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E202" t="n">
+        <v>0</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8202,10 +7796,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E203" t="n">
+        <v>0</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8240,10 +7832,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E204" t="n">
+        <v>0</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8278,10 +7868,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E205" t="n">
+        <v>0</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8316,10 +7904,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E206" t="n">
+        <v>0</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8354,10 +7940,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E207" t="n">
+        <v>0</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8392,10 +7976,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E208" t="n">
+        <v>0</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8430,10 +8012,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E209" t="n">
+        <v>0</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8468,10 +8048,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E210" t="n">
+        <v>0</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8506,10 +8084,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E211" t="n">
+        <v>0</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -8544,10 +8120,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E212" t="n">
+        <v>0</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -8582,10 +8156,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E213" t="n">
+        <v>0</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -8622,10 +8194,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E214" t="n">
+        <v>0</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -8660,10 +8230,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E215" t="n">
+        <v>0</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -8698,10 +8266,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E216" t="n">
+        <v>0</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8738,10 +8304,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E217" t="n">
+        <v>0</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8776,10 +8340,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E218" t="n">
+        <v>0</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -8814,10 +8376,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E219" t="n">
+        <v>0</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -8852,10 +8412,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E220" t="n">
+        <v>0</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -8890,10 +8448,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E221" t="n">
+        <v>0</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -8928,10 +8484,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E222" t="n">
+        <v>0</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -8968,10 +8522,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E223" t="n">
+        <v>0</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9006,10 +8558,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E224" t="n">
+        <v>0</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9044,10 +8594,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E225" t="n">
+        <v>0</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9082,10 +8630,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E226" t="n">
+        <v>0</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9120,10 +8666,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E227" t="n">
+        <v>0</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9158,10 +8702,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E228" t="n">
+        <v>0</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9196,10 +8738,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E229" t="n">
+        <v>0</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9234,10 +8774,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E230" t="n">
+        <v>0</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9272,10 +8810,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E231" t="n">
+        <v>0</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -9310,10 +8846,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E232" t="n">
+        <v>0</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9348,10 +8882,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E233" t="n">
+        <v>0</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -9386,10 +8918,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E234" t="n">
+        <v>0</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -9424,10 +8954,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E235" t="n">
+        <v>0</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -9462,10 +8990,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E236" t="n">
+        <v>0</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -9500,10 +9026,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E237" t="n">
+        <v>0</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -9538,10 +9062,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E238" t="n">
+        <v>0</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -9576,10 +9098,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E239" t="n">
+        <v>0</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -9614,10 +9134,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E240" t="n">
+        <v>0</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -9652,10 +9170,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E241" t="n">
+        <v>0</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -9690,10 +9206,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E242" t="n">
+        <v>0</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -9728,10 +9242,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E243" t="n">
+        <v>0</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -9766,10 +9278,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E244" t="n">
+        <v>0</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9804,10 +9314,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E245" t="n">
+        <v>0</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9842,10 +9350,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E246" t="n">
+        <v>0</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -9880,10 +9386,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E247" t="n">
+        <v>0</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -9918,10 +9422,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E248" t="n">
+        <v>0</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -9956,10 +9458,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E249" t="n">
+        <v>0</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -9994,10 +9494,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E250" t="n">
+        <v>0</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10032,10 +9530,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E251" t="n">
+        <v>0</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10070,10 +9566,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E252" t="n">
+        <v>0</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10108,10 +9602,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E253" t="n">
+        <v>0</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10146,10 +9638,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E254" t="n">
+        <v>0</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10184,10 +9674,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E255" t="n">
+        <v>0</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10224,10 +9712,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E256" t="n">
+        <v>0</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10262,10 +9748,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E257" t="n">
+        <v>0</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10300,10 +9784,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E258" t="n">
+        <v>0</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10338,10 +9820,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E259" t="n">
+        <v>0</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -10376,10 +9856,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E260" t="n">
+        <v>0</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -10414,10 +9892,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E261" t="n">
+        <v>0</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -10452,10 +9928,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E262" t="n">
+        <v>0</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -10490,10 +9964,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E263" t="n">
+        <v>0</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -10528,10 +10000,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E264" t="n">
+        <v>0</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -10566,10 +10036,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E265" t="n">
+        <v>0</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -10604,10 +10072,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E266" t="n">
+        <v>0</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -10642,10 +10108,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E267" t="n">
+        <v>0</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -10680,10 +10144,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E268" t="n">
+        <v>0</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -10718,10 +10180,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E269" t="n">
+        <v>0</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -10758,10 +10218,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E270" t="n">
+        <v>0</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -10796,10 +10254,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E271" t="n">
+        <v>0</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -10834,10 +10290,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E272" t="n">
+        <v>0</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -10872,10 +10326,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E273" t="n">
+        <v>0</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -10910,10 +10362,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E274" t="n">
+        <v>0</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -10948,10 +10398,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E275" t="n">
+        <v>0</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -10986,10 +10434,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E276" t="n">
+        <v>0</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11026,10 +10472,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E277" t="n">
+        <v>0</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11064,10 +10508,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E278" t="n">
+        <v>0</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11104,10 +10546,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E279" t="n">
+        <v>0</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11144,10 +10584,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E280" t="n">
+        <v>0</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11184,10 +10622,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E281" t="n">
+        <v>0</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -11222,10 +10658,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E282" t="n">
+        <v>0</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11260,10 +10694,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E283" t="n">
+        <v>0</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11298,10 +10730,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E284" t="n">
+        <v>0</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -11336,10 +10766,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E285" t="n">
+        <v>0</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -11374,10 +10802,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E286" t="n">
+        <v>0</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -11412,10 +10838,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E287" t="n">
+        <v>0</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -11450,10 +10874,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E288" t="n">
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -11488,10 +10910,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E289" t="n">
+        <v>0</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -11526,10 +10946,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E290" t="n">
+        <v>0</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -11566,10 +10984,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E291" t="n">
+        <v>0</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -11604,10 +11020,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E292" t="n">
+        <v>0</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -11642,10 +11056,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E293" t="n">
+        <v>0</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -11680,10 +11092,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E294" t="n">
+        <v>0</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -11718,10 +11128,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E295" t="n">
+        <v>0</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -11756,10 +11164,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E296" t="n">
+        <v>0</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -11794,10 +11200,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E297" t="n">
+        <v>0</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -11832,10 +11236,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E298" t="n">
+        <v>0</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -11870,10 +11272,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E299" t="n">
+        <v>0</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -11910,10 +11310,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E300" t="n">
+        <v>0</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -11948,10 +11346,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E301" t="n">
+        <v>0</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -11986,10 +11382,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E302" t="n">
+        <v>0</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -12024,10 +11418,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E303" t="n">
+        <v>0</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12062,10 +11454,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E304" t="n">
+        <v>0</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12100,10 +11490,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E305" t="n">
+        <v>0</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -12138,10 +11526,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E306" t="n">
+        <v>0</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -12176,10 +11562,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E307" t="n">
+        <v>0</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -12216,10 +11600,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E308" t="n">
+        <v>0</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -12254,10 +11636,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E309" t="n">
+        <v>0</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -12292,10 +11672,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E310" t="n">
+        <v>0</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -12330,10 +11708,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E311" t="n">
+        <v>0</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -12368,10 +11744,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E312" t="n">
+        <v>0</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -12406,10 +11780,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E313" t="n">
+        <v>0</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -12444,10 +11816,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E314" t="n">
+        <v>0</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -12482,10 +11852,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E315" t="n">
+        <v>0</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -12520,10 +11888,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E316" t="n">
+        <v>0</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -12558,10 +11924,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E317" t="n">
+        <v>0</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -12596,10 +11960,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E318" t="n">
+        <v>0</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -12634,10 +11996,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E319" t="n">
+        <v>0</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -12672,10 +12032,8 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E320" t="n">
+        <v>0</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -12695,25 +12053,21 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>21992193853</v>
+        <v>21966652864</v>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>2023-10-2 22:30</t>
+        </is>
+      </c>
+      <c r="D321" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -12722,40 +12076,6 @@
       </c>
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>21992193853</v>
-      </c>
-      <c r="B322" t="n">
-        <v>2</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>GOLDEN26</t>
-        </is>
-      </c>
-      <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
